--- a/cajas-diarias/totales-2023-09-12.xlsx
+++ b/cajas-diarias/totales-2023-09-12.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,9 +418,25 @@
         <v>EFECTIVO</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DEBITO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cajas-diarias/totales-2023-09-12.xlsx
+++ b/cajas-diarias/totales-2023-09-12.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -434,9 +434,65 @@
         <v>DEBITO</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TRANSFERENCIA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>20000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>20000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>123</v>
+      </c>
+      <c r="B9" t="str">
+        <v>EFECTIVO</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>123</v>
+      </c>
+      <c r="B10" t="str">
+        <v>DEBITO</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>123</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CREDITO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>